--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C808DCFB-D853-4B76-8CB4-D2463EE3FA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA8B09-2B66-4CE2-BBFC-5F806F65C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="197">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,6 +736,34 @@
   </si>
   <si>
     <t>다문천왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook59</t>
+  </si>
+  <si>
+    <t>magicBook60</t>
+  </si>
+  <si>
+    <t>magicBook61</t>
+  </si>
+  <si>
+    <t>아수라 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드라 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook62</t>
+  </si>
+  <si>
+    <t>3월 패스 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1288,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1268,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AE60"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6999,6 +7027,386 @@
       </c>
       <c r="AE60" s="9">
         <v>15000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61" s="25">
+        <v>59</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="25">
+        <v>24</v>
+      </c>
+      <c r="E61" s="25">
+        <v>4</v>
+      </c>
+      <c r="F61" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G61" s="25">
+        <v>200</v>
+      </c>
+      <c r="H61" s="25">
+        <v>128</v>
+      </c>
+      <c r="I61" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="26">
+        <v>0</v>
+      </c>
+      <c r="K61" s="26">
+        <v>0</v>
+      </c>
+      <c r="L61" s="26">
+        <v>0</v>
+      </c>
+      <c r="M61" s="26">
+        <v>0</v>
+      </c>
+      <c r="N61" s="26">
+        <v>0</v>
+      </c>
+      <c r="O61" s="26">
+        <v>0</v>
+      </c>
+      <c r="P61" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>0</v>
+      </c>
+      <c r="R61" s="26">
+        <v>0</v>
+      </c>
+      <c r="S61" s="26">
+        <v>0</v>
+      </c>
+      <c r="T61" s="25">
+        <v>2</v>
+      </c>
+      <c r="U61" s="25">
+        <v>10</v>
+      </c>
+      <c r="V61" s="25">
+        <v>1</v>
+      </c>
+      <c r="W61" s="25">
+        <v>7</v>
+      </c>
+      <c r="X61" s="25">
+        <v>60000</v>
+      </c>
+      <c r="Y61" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB61" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC61" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD61" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
+        <v>60</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="25">
+        <v>24</v>
+      </c>
+      <c r="E62" s="25">
+        <v>4</v>
+      </c>
+      <c r="F62" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G62" s="25">
+        <v>200</v>
+      </c>
+      <c r="H62" s="25">
+        <v>129</v>
+      </c>
+      <c r="I62" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="26">
+        <v>0</v>
+      </c>
+      <c r="K62" s="26">
+        <v>0</v>
+      </c>
+      <c r="L62" s="26">
+        <v>0</v>
+      </c>
+      <c r="M62" s="26">
+        <v>0</v>
+      </c>
+      <c r="N62" s="26">
+        <v>0</v>
+      </c>
+      <c r="O62" s="26">
+        <v>0</v>
+      </c>
+      <c r="P62" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>0</v>
+      </c>
+      <c r="R62" s="26">
+        <v>0</v>
+      </c>
+      <c r="S62" s="26">
+        <v>0</v>
+      </c>
+      <c r="T62" s="25">
+        <v>2</v>
+      </c>
+      <c r="U62" s="25">
+        <v>10</v>
+      </c>
+      <c r="V62" s="25">
+        <v>1</v>
+      </c>
+      <c r="W62" s="25">
+        <v>7</v>
+      </c>
+      <c r="X62" s="25">
+        <v>62000</v>
+      </c>
+      <c r="Y62" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB62" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC62" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>61</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="25">
+        <v>24</v>
+      </c>
+      <c r="E63" s="25">
+        <v>4</v>
+      </c>
+      <c r="F63" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G63" s="25">
+        <v>200</v>
+      </c>
+      <c r="H63" s="25">
+        <v>130</v>
+      </c>
+      <c r="I63" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="26">
+        <v>0</v>
+      </c>
+      <c r="K63" s="26">
+        <v>0</v>
+      </c>
+      <c r="L63" s="26">
+        <v>0</v>
+      </c>
+      <c r="M63" s="26">
+        <v>0</v>
+      </c>
+      <c r="N63" s="26">
+        <v>0</v>
+      </c>
+      <c r="O63" s="26">
+        <v>0</v>
+      </c>
+      <c r="P63" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="26">
+        <v>0</v>
+      </c>
+      <c r="R63" s="26">
+        <v>0</v>
+      </c>
+      <c r="S63" s="26">
+        <v>0</v>
+      </c>
+      <c r="T63" s="25">
+        <v>2</v>
+      </c>
+      <c r="U63" s="25">
+        <v>10</v>
+      </c>
+      <c r="V63" s="25">
+        <v>1</v>
+      </c>
+      <c r="W63" s="25">
+        <v>7</v>
+      </c>
+      <c r="X63" s="25">
+        <v>64000</v>
+      </c>
+      <c r="Y63" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB63" s="14">
+        <v>10000</v>
+      </c>
+      <c r="AC63" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD63" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>62</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="10">
+        <v>9</v>
+      </c>
+      <c r="E64" s="10">
+        <v>4</v>
+      </c>
+      <c r="F64" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G64" s="10">
+        <v>200</v>
+      </c>
+      <c r="H64" s="10">
+        <v>75</v>
+      </c>
+      <c r="I64" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <v>0</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+      <c r="T64" s="10">
+        <v>2</v>
+      </c>
+      <c r="U64" s="10">
+        <v>10</v>
+      </c>
+      <c r="V64" s="10">
+        <v>1</v>
+      </c>
+      <c r="W64" s="10">
+        <v>7</v>
+      </c>
+      <c r="X64" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>5700000</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="9">
+        <v>5700</v>
+      </c>
+      <c r="AC64" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD64" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDA8B09-2B66-4CE2-BBFC-5F806F65C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1223C0-708E-4E9F-B2D3-1651E7973EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="226">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,6 +764,138 @@
   </si>
   <si>
     <t>3월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcquireDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥
+수호신 에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름 훈련에서
+획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴사냥
+구미호꼬리 8획득시
+획득 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥
+지옥불꽃에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래전에서
+획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요괴지옥
+강림도령에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상계
+칠선녀에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 나라
+도깨비 보스에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 패스
+12월 월간패스 보상에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 패스
+1월 월간패스 보상에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 패스
+2월 월간패스 보상에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 패스
+3월 월간패스 보상에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 나라
+도깨비 우두머리에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+사천왕에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미산
+아드라전에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook63</t>
+  </si>
+  <si>
+    <t>magicBook64</t>
+  </si>
+  <si>
+    <t>magicBook65</t>
+  </si>
+  <si>
+    <t>magicBook66</t>
+  </si>
+  <si>
+    <t>도둑들
+일지매에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑들
+임꺽정에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑들
+전우치에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도둑들
+홍길동에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일지매 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우치 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,7 +1022,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,6 +1103,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1296,11 +1431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE65" sqref="AE65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1327,9 +1462,10 @@
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="19.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1559,11 @@
       <c r="AE1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1518,8 +1657,11 @@
       <c r="AE2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1613,8 +1755,11 @@
       <c r="AE3" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1708,8 +1853,11 @@
       <c r="AE4" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1803,8 +1951,11 @@
       <c r="AE5" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1898,8 +2049,11 @@
       <c r="AE6" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1993,8 +2147,11 @@
       <c r="AE7" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2088,8 +2245,11 @@
       <c r="AE8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2183,8 +2343,11 @@
       <c r="AE9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2278,8 +2441,11 @@
       <c r="AE10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2373,8 +2539,11 @@
       <c r="AE11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2468,8 +2637,11 @@
       <c r="AE12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2563,8 +2735,11 @@
       <c r="AE13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2658,8 +2833,11 @@
       <c r="AE14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2753,8 +2931,11 @@
       <c r="AE15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2848,8 +3029,11 @@
       <c r="AE16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2943,8 +3127,11 @@
       <c r="AE17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3038,8 +3225,11 @@
       <c r="AE18" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3133,8 +3323,11 @@
       <c r="AE19" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="20" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3228,8 +3421,11 @@
       <c r="AE20" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3323,8 +3519,11 @@
       <c r="AE21" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -3418,8 +3617,11 @@
       <c r="AE22" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -3513,8 +3715,11 @@
       <c r="AE23" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" s="15" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -3608,8 +3813,11 @@
       <c r="AE24" s="9">
         <v>500000</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF24" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -3703,8 +3911,11 @@
       <c r="AE25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF25" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -3798,8 +4009,11 @@
       <c r="AE26" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF26" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -3893,8 +4107,11 @@
       <c r="AE27" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF27" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -3988,8 +4205,11 @@
       <c r="AE28" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF28" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -4083,8 +4303,11 @@
       <c r="AE29" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF29" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -4178,8 +4401,11 @@
       <c r="AE30" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF30" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -4273,8 +4499,11 @@
       <c r="AE31" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="32" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF31" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -4368,8 +4597,11 @@
       <c r="AE32" s="9">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF32" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -4463,8 +4695,11 @@
       <c r="AE33" s="9">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF33" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4558,8 +4793,11 @@
       <c r="AE34" s="9">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF34" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -4653,8 +4891,11 @@
       <c r="AE35" s="9">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF35" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -4748,8 +4989,11 @@
       <c r="AE36" s="9">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF36" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -4843,8 +5087,11 @@
       <c r="AE37" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF37" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>36</v>
       </c>
@@ -4938,8 +5185,11 @@
       <c r="AE38" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF38" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -5033,8 +5283,11 @@
       <c r="AE39" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF39" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -5128,8 +5381,11 @@
       <c r="AE40" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF40" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -5223,8 +5479,11 @@
       <c r="AE41" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="42" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF41" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -5318,8 +5577,11 @@
       <c r="AE42" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF42" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>41</v>
       </c>
@@ -5413,8 +5675,11 @@
       <c r="AE43" s="9">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF43" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>42</v>
       </c>
@@ -5508,8 +5773,11 @@
       <c r="AE44" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF44" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>43</v>
       </c>
@@ -5603,8 +5871,11 @@
       <c r="AE45" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="46" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF45" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>44</v>
       </c>
@@ -5698,8 +5969,11 @@
       <c r="AE46" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF46" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -5793,8 +6067,11 @@
       <c r="AE47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF47" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>46</v>
       </c>
@@ -5888,8 +6165,11 @@
       <c r="AE48" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF48" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>47</v>
       </c>
@@ -5983,8 +6263,11 @@
       <c r="AE49" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="50" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF49" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>48</v>
       </c>
@@ -6078,8 +6361,11 @@
       <c r="AE50" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF50" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>49</v>
       </c>
@@ -6173,8 +6459,11 @@
       <c r="AE51" s="9">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="52" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF51" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -6268,8 +6557,11 @@
       <c r="AE52" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF52" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>51</v>
       </c>
@@ -6363,8 +6655,11 @@
       <c r="AE53" s="9">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF53" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>52</v>
       </c>
@@ -6458,8 +6753,11 @@
       <c r="AE54" s="9">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF54" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>53</v>
       </c>
@@ -6553,8 +6851,11 @@
       <c r="AE55" s="9">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="56" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF55" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>54</v>
       </c>
@@ -6648,8 +6949,11 @@
       <c r="AE56" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AF56" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -6743,8 +7047,11 @@
       <c r="AE57" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="58" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF57" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -6838,8 +7145,11 @@
       <c r="AE58" s="9">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF58" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>57</v>
       </c>
@@ -6933,8 +7243,11 @@
       <c r="AE59" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF59" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>58</v>
       </c>
@@ -7028,8 +7341,11 @@
       <c r="AE60" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF60" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>59</v>
       </c>
@@ -7123,8 +7439,11 @@
       <c r="AE61" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF61" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>60</v>
       </c>
@@ -7218,8 +7537,11 @@
       <c r="AE62" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF62" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>61</v>
       </c>
@@ -7313,8 +7635,11 @@
       <c r="AE63" s="9">
         <v>15000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:31" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AF63" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -7407,6 +7732,401 @@
       </c>
       <c r="AE64" s="9">
         <v>1000000</v>
+      </c>
+      <c r="AF64" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
+        <v>63</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" s="25">
+        <v>26</v>
+      </c>
+      <c r="E65" s="25">
+        <v>4</v>
+      </c>
+      <c r="F65" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G65" s="25">
+        <v>200</v>
+      </c>
+      <c r="H65" s="25">
+        <v>135</v>
+      </c>
+      <c r="I65" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" s="26">
+        <v>0</v>
+      </c>
+      <c r="K65" s="26">
+        <v>0</v>
+      </c>
+      <c r="L65" s="26">
+        <v>0</v>
+      </c>
+      <c r="M65" s="26">
+        <v>0</v>
+      </c>
+      <c r="N65" s="26">
+        <v>0</v>
+      </c>
+      <c r="O65" s="26">
+        <v>0</v>
+      </c>
+      <c r="P65" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="26">
+        <v>0</v>
+      </c>
+      <c r="R65" s="26">
+        <v>0</v>
+      </c>
+      <c r="S65" s="26">
+        <v>0</v>
+      </c>
+      <c r="T65" s="25">
+        <v>2</v>
+      </c>
+      <c r="U65" s="25">
+        <v>10</v>
+      </c>
+      <c r="V65" s="25">
+        <v>1</v>
+      </c>
+      <c r="W65" s="25">
+        <v>7</v>
+      </c>
+      <c r="X65" s="25">
+        <v>64000</v>
+      </c>
+      <c r="Y65" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z65" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB65" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AC65" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD65" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF65" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
+        <v>64</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D66" s="25">
+        <v>26</v>
+      </c>
+      <c r="E66" s="25">
+        <v>4</v>
+      </c>
+      <c r="F66" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G66" s="25">
+        <v>200</v>
+      </c>
+      <c r="H66" s="25">
+        <v>136</v>
+      </c>
+      <c r="I66" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" s="26">
+        <v>0</v>
+      </c>
+      <c r="K66" s="26">
+        <v>0</v>
+      </c>
+      <c r="L66" s="26">
+        <v>0</v>
+      </c>
+      <c r="M66" s="26">
+        <v>0</v>
+      </c>
+      <c r="N66" s="26">
+        <v>0</v>
+      </c>
+      <c r="O66" s="26">
+        <v>0</v>
+      </c>
+      <c r="P66" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>0</v>
+      </c>
+      <c r="R66" s="26">
+        <v>0</v>
+      </c>
+      <c r="S66" s="26">
+        <v>0</v>
+      </c>
+      <c r="T66" s="25">
+        <v>2</v>
+      </c>
+      <c r="U66" s="25">
+        <v>10</v>
+      </c>
+      <c r="V66" s="25">
+        <v>1</v>
+      </c>
+      <c r="W66" s="25">
+        <v>7</v>
+      </c>
+      <c r="X66" s="25">
+        <v>66000</v>
+      </c>
+      <c r="Y66" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB66" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AC66" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD66" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF66" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
+        <v>65</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="25">
+        <v>26</v>
+      </c>
+      <c r="E67" s="25">
+        <v>4</v>
+      </c>
+      <c r="F67" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G67" s="25">
+        <v>200</v>
+      </c>
+      <c r="H67" s="25">
+        <v>137</v>
+      </c>
+      <c r="I67" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67" s="26">
+        <v>0</v>
+      </c>
+      <c r="K67" s="26">
+        <v>0</v>
+      </c>
+      <c r="L67" s="26">
+        <v>0</v>
+      </c>
+      <c r="M67" s="26">
+        <v>0</v>
+      </c>
+      <c r="N67" s="26">
+        <v>0</v>
+      </c>
+      <c r="O67" s="26">
+        <v>0</v>
+      </c>
+      <c r="P67" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="26">
+        <v>0</v>
+      </c>
+      <c r="R67" s="26">
+        <v>0</v>
+      </c>
+      <c r="S67" s="26">
+        <v>0</v>
+      </c>
+      <c r="T67" s="25">
+        <v>2</v>
+      </c>
+      <c r="U67" s="25">
+        <v>10</v>
+      </c>
+      <c r="V67" s="25">
+        <v>1</v>
+      </c>
+      <c r="W67" s="25">
+        <v>7</v>
+      </c>
+      <c r="X67" s="25">
+        <v>68000</v>
+      </c>
+      <c r="Y67" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z67" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB67" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AC67" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD67" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF67" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>66</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D68" s="25">
+        <v>26</v>
+      </c>
+      <c r="E68" s="25">
+        <v>4</v>
+      </c>
+      <c r="F68" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G68" s="25">
+        <v>200</v>
+      </c>
+      <c r="H68" s="25">
+        <v>138</v>
+      </c>
+      <c r="I68" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68" s="26">
+        <v>0</v>
+      </c>
+      <c r="K68" s="26">
+        <v>0</v>
+      </c>
+      <c r="L68" s="26">
+        <v>0</v>
+      </c>
+      <c r="M68" s="26">
+        <v>0</v>
+      </c>
+      <c r="N68" s="26">
+        <v>0</v>
+      </c>
+      <c r="O68" s="26">
+        <v>0</v>
+      </c>
+      <c r="P68" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="26">
+        <v>0</v>
+      </c>
+      <c r="R68" s="26">
+        <v>0</v>
+      </c>
+      <c r="S68" s="26">
+        <v>0</v>
+      </c>
+      <c r="T68" s="25">
+        <v>2</v>
+      </c>
+      <c r="U68" s="25">
+        <v>10</v>
+      </c>
+      <c r="V68" s="25">
+        <v>1</v>
+      </c>
+      <c r="W68" s="25">
+        <v>7</v>
+      </c>
+      <c r="X68" s="25">
+        <v>70000</v>
+      </c>
+      <c r="Y68" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB68" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AC68" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD68" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF68" s="27" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1223C0-708E-4E9F-B2D3-1651E7973EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C788A-17D0-4E5B-8484-9F44CAEEFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="237">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,39 +863,82 @@
     <t>magicBook66</t>
   </si>
   <si>
-    <t>도둑들
+    <t>일지매 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우치 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook67</t>
+  </si>
+  <si>
+    <t>magicBook68</t>
+  </si>
+  <si>
+    <t>magicBook69</t>
+  </si>
+  <si>
+    <t>도적단
 일지매에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도둑들
+    <t>도적단
 임꺽정에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도둑들
+    <t>도적단
 전우치에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도둑들
+    <t>도적단
 홍길동에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일지매 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임꺽정 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전우치 노리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동 노리개</t>
+    <t>도적단
+쿠노이치에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+시노비에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+카게에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠노이치 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시노비 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카게 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook70</t>
+  </si>
+  <si>
+    <t>4월 패스 노리개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF68"/>
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE65" sqref="AE65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC52" sqref="AC52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6537,16 +6580,16 @@
         <v>0</v>
       </c>
       <c r="Y52" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="9">
-        <v>5100000</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="9">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="10" t="s">
         <v>136</v>
@@ -7125,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="Y58" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="9">
-        <v>5700000</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="9">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="10" t="s">
         <v>136</v>
@@ -7713,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="Y64" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="9">
-        <v>5700000</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="9">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="10" t="s">
         <v>136</v>
@@ -7745,7 +7788,7 @@
         <v>214</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D65" s="25">
         <v>26</v>
@@ -7832,7 +7875,7 @@
         <v>30000000</v>
       </c>
       <c r="AF65" s="27" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7843,7 +7886,7 @@
         <v>215</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D66" s="25">
         <v>26</v>
@@ -7930,7 +7973,7 @@
         <v>30000000</v>
       </c>
       <c r="AF66" s="27" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7941,7 +7984,7 @@
         <v>216</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D67" s="25">
         <v>26</v>
@@ -8028,7 +8071,7 @@
         <v>30000000</v>
       </c>
       <c r="AF67" s="27" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8039,7 +8082,7 @@
         <v>217</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D68" s="25">
         <v>26</v>
@@ -8126,7 +8169,399 @@
         <v>30000000</v>
       </c>
       <c r="AF68" s="27" t="s">
-        <v>221</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
+        <v>67</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="25">
+        <v>26</v>
+      </c>
+      <c r="E69" s="25">
+        <v>4</v>
+      </c>
+      <c r="F69" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G69" s="25">
+        <v>200</v>
+      </c>
+      <c r="H69" s="25">
+        <v>142</v>
+      </c>
+      <c r="I69" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69" s="26">
+        <v>0</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0</v>
+      </c>
+      <c r="L69" s="26">
+        <v>0</v>
+      </c>
+      <c r="M69" s="26">
+        <v>0</v>
+      </c>
+      <c r="N69" s="26">
+        <v>0</v>
+      </c>
+      <c r="O69" s="26">
+        <v>0</v>
+      </c>
+      <c r="P69" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="26">
+        <v>0</v>
+      </c>
+      <c r="R69" s="26">
+        <v>0</v>
+      </c>
+      <c r="S69" s="26">
+        <v>0</v>
+      </c>
+      <c r="T69" s="25">
+        <v>2</v>
+      </c>
+      <c r="U69" s="25">
+        <v>10</v>
+      </c>
+      <c r="V69" s="25">
+        <v>1</v>
+      </c>
+      <c r="W69" s="25">
+        <v>7</v>
+      </c>
+      <c r="X69" s="25">
+        <v>72000</v>
+      </c>
+      <c r="Y69" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z69" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB69" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC69" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD69" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF69" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
+        <v>68</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D70" s="25">
+        <v>26</v>
+      </c>
+      <c r="E70" s="25">
+        <v>4</v>
+      </c>
+      <c r="F70" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G70" s="25">
+        <v>200</v>
+      </c>
+      <c r="H70" s="25">
+        <v>143</v>
+      </c>
+      <c r="I70" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" s="26">
+        <v>0</v>
+      </c>
+      <c r="K70" s="26">
+        <v>0</v>
+      </c>
+      <c r="L70" s="26">
+        <v>0</v>
+      </c>
+      <c r="M70" s="26">
+        <v>0</v>
+      </c>
+      <c r="N70" s="26">
+        <v>0</v>
+      </c>
+      <c r="O70" s="26">
+        <v>0</v>
+      </c>
+      <c r="P70" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="26">
+        <v>0</v>
+      </c>
+      <c r="R70" s="26">
+        <v>0</v>
+      </c>
+      <c r="S70" s="26">
+        <v>0</v>
+      </c>
+      <c r="T70" s="25">
+        <v>2</v>
+      </c>
+      <c r="U70" s="25">
+        <v>10</v>
+      </c>
+      <c r="V70" s="25">
+        <v>1</v>
+      </c>
+      <c r="W70" s="25">
+        <v>7</v>
+      </c>
+      <c r="X70" s="25">
+        <v>74000</v>
+      </c>
+      <c r="Y70" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z70" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB70" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC70" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD70" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF70" s="27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
+        <v>69</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="25">
+        <v>26</v>
+      </c>
+      <c r="E71" s="25">
+        <v>4</v>
+      </c>
+      <c r="F71" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G71" s="25">
+        <v>200</v>
+      </c>
+      <c r="H71" s="25">
+        <v>144</v>
+      </c>
+      <c r="I71" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" s="26">
+        <v>0</v>
+      </c>
+      <c r="K71" s="26">
+        <v>0</v>
+      </c>
+      <c r="L71" s="26">
+        <v>0</v>
+      </c>
+      <c r="M71" s="26">
+        <v>0</v>
+      </c>
+      <c r="N71" s="26">
+        <v>0</v>
+      </c>
+      <c r="O71" s="26">
+        <v>0</v>
+      </c>
+      <c r="P71" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="26">
+        <v>0</v>
+      </c>
+      <c r="R71" s="26">
+        <v>0</v>
+      </c>
+      <c r="S71" s="26">
+        <v>0</v>
+      </c>
+      <c r="T71" s="25">
+        <v>2</v>
+      </c>
+      <c r="U71" s="25">
+        <v>10</v>
+      </c>
+      <c r="V71" s="25">
+        <v>1</v>
+      </c>
+      <c r="W71" s="25">
+        <v>7</v>
+      </c>
+      <c r="X71" s="25">
+        <v>76000</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z71" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB71" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC71" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD71" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF71" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
+        <v>70</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D72" s="10">
+        <v>9</v>
+      </c>
+      <c r="E72" s="10">
+        <v>4</v>
+      </c>
+      <c r="F72" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G72" s="10">
+        <v>200</v>
+      </c>
+      <c r="H72" s="10">
+        <v>75</v>
+      </c>
+      <c r="I72" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0</v>
+      </c>
+      <c r="K72" s="11">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11">
+        <v>0</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>0</v>
+      </c>
+      <c r="R72" s="11">
+        <v>0</v>
+      </c>
+      <c r="S72" s="11">
+        <v>0</v>
+      </c>
+      <c r="T72" s="10">
+        <v>2</v>
+      </c>
+      <c r="U72" s="10">
+        <v>10</v>
+      </c>
+      <c r="V72" s="10">
+        <v>1</v>
+      </c>
+      <c r="W72" s="10">
+        <v>7</v>
+      </c>
+      <c r="X72" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD72" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF72" s="27" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C788A-17D0-4E5B-8484-9F44CAEEFB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81308E-1AFC-484B-87A8-9D306C6B68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1650" yWindow="2265" windowWidth="28815" windowHeight="11370" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="249">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +939,54 @@
   </si>
   <si>
     <t>4월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook71</t>
+  </si>
+  <si>
+    <t>magicBook72</t>
+  </si>
+  <si>
+    <t>magicBook73</t>
+  </si>
+  <si>
+    <t>magicBook74</t>
+  </si>
+  <si>
+    <t>측천무후 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+측천무후에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항우 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조조 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진시황 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+항우에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+조조에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도적단
+진시황에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,11 +1522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF72"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC52" sqref="AC52"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8564,6 +8612,398 @@
         <v>209</v>
       </c>
     </row>
+    <row r="73" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
+        <v>71</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="25">
+        <v>26</v>
+      </c>
+      <c r="E73" s="25">
+        <v>4</v>
+      </c>
+      <c r="F73" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G73" s="25">
+        <v>200</v>
+      </c>
+      <c r="H73" s="25">
+        <v>149</v>
+      </c>
+      <c r="I73" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="26">
+        <v>0</v>
+      </c>
+      <c r="K73" s="26">
+        <v>0</v>
+      </c>
+      <c r="L73" s="26">
+        <v>0</v>
+      </c>
+      <c r="M73" s="26">
+        <v>0</v>
+      </c>
+      <c r="N73" s="26">
+        <v>0</v>
+      </c>
+      <c r="O73" s="26">
+        <v>0</v>
+      </c>
+      <c r="P73" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="26">
+        <v>0</v>
+      </c>
+      <c r="R73" s="26">
+        <v>0</v>
+      </c>
+      <c r="S73" s="26">
+        <v>0</v>
+      </c>
+      <c r="T73" s="25">
+        <v>2</v>
+      </c>
+      <c r="U73" s="25">
+        <v>10</v>
+      </c>
+      <c r="V73" s="25">
+        <v>1</v>
+      </c>
+      <c r="W73" s="25">
+        <v>7</v>
+      </c>
+      <c r="X73" s="25">
+        <v>78000</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>20000</v>
+      </c>
+      <c r="AC73" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD73" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="AF73" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
+        <v>72</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D74" s="25">
+        <v>26</v>
+      </c>
+      <c r="E74" s="25">
+        <v>4</v>
+      </c>
+      <c r="F74" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="25">
+        <v>200</v>
+      </c>
+      <c r="H74" s="25">
+        <v>150</v>
+      </c>
+      <c r="I74" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="26">
+        <v>0</v>
+      </c>
+      <c r="K74" s="26">
+        <v>0</v>
+      </c>
+      <c r="L74" s="26">
+        <v>0</v>
+      </c>
+      <c r="M74" s="26">
+        <v>0</v>
+      </c>
+      <c r="N74" s="26">
+        <v>0</v>
+      </c>
+      <c r="O74" s="26">
+        <v>0</v>
+      </c>
+      <c r="P74" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="26">
+        <v>0</v>
+      </c>
+      <c r="R74" s="26">
+        <v>0</v>
+      </c>
+      <c r="S74" s="26">
+        <v>0</v>
+      </c>
+      <c r="T74" s="25">
+        <v>2</v>
+      </c>
+      <c r="U74" s="25">
+        <v>10</v>
+      </c>
+      <c r="V74" s="25">
+        <v>1</v>
+      </c>
+      <c r="W74" s="25">
+        <v>7</v>
+      </c>
+      <c r="X74" s="25">
+        <v>80000</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z74" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB74" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC74" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD74" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF74" s="27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="25">
+        <v>73</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="25">
+        <v>26</v>
+      </c>
+      <c r="E75" s="25">
+        <v>4</v>
+      </c>
+      <c r="F75" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G75" s="25">
+        <v>200</v>
+      </c>
+      <c r="H75" s="25">
+        <v>151</v>
+      </c>
+      <c r="I75" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="26">
+        <v>0</v>
+      </c>
+      <c r="K75" s="26">
+        <v>0</v>
+      </c>
+      <c r="L75" s="26">
+        <v>0</v>
+      </c>
+      <c r="M75" s="26">
+        <v>0</v>
+      </c>
+      <c r="N75" s="26">
+        <v>0</v>
+      </c>
+      <c r="O75" s="26">
+        <v>0</v>
+      </c>
+      <c r="P75" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="26">
+        <v>0</v>
+      </c>
+      <c r="R75" s="26">
+        <v>0</v>
+      </c>
+      <c r="S75" s="26">
+        <v>0</v>
+      </c>
+      <c r="T75" s="25">
+        <v>2</v>
+      </c>
+      <c r="U75" s="25">
+        <v>10</v>
+      </c>
+      <c r="V75" s="25">
+        <v>1</v>
+      </c>
+      <c r="W75" s="25">
+        <v>7</v>
+      </c>
+      <c r="X75" s="25">
+        <v>82000</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z75" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB75" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC75" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD75" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF75" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
+        <v>74</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="25">
+        <v>26</v>
+      </c>
+      <c r="E76" s="25">
+        <v>4</v>
+      </c>
+      <c r="F76" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G76" s="25">
+        <v>200</v>
+      </c>
+      <c r="H76" s="25">
+        <v>152</v>
+      </c>
+      <c r="I76" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="26">
+        <v>0</v>
+      </c>
+      <c r="K76" s="26">
+        <v>0</v>
+      </c>
+      <c r="L76" s="26">
+        <v>0</v>
+      </c>
+      <c r="M76" s="26">
+        <v>0</v>
+      </c>
+      <c r="N76" s="26">
+        <v>0</v>
+      </c>
+      <c r="O76" s="26">
+        <v>0</v>
+      </c>
+      <c r="P76" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="26">
+        <v>0</v>
+      </c>
+      <c r="R76" s="26">
+        <v>0</v>
+      </c>
+      <c r="S76" s="26">
+        <v>0</v>
+      </c>
+      <c r="T76" s="25">
+        <v>2</v>
+      </c>
+      <c r="U76" s="25">
+        <v>10</v>
+      </c>
+      <c r="V76" s="25">
+        <v>1</v>
+      </c>
+      <c r="W76" s="25">
+        <v>7</v>
+      </c>
+      <c r="X76" s="25">
+        <v>84000</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB76" s="14">
+        <v>30000</v>
+      </c>
+      <c r="AC76" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD76" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="AF76" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:AE60" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E81308E-1AFC-484B-87A8-9D306C6B68A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58045B73-9422-473C-A213-EFEAF2A42DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2265" windowWidth="28815" windowHeight="11370" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -1524,9 +1524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC80" sqref="AC80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8689,13 +8689,13 @@
         <v>9008</v>
       </c>
       <c r="Z73" s="14">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="AA73" s="14">
         <v>9008</v>
       </c>
       <c r="AB73" s="14">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="AC73" s="25" t="s">
         <v>135</v>
@@ -8787,13 +8787,13 @@
         <v>9008</v>
       </c>
       <c r="Z74" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AA74" s="14">
         <v>9008</v>
       </c>
       <c r="AB74" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AC74" s="25" t="s">
         <v>135</v>
@@ -8885,13 +8885,13 @@
         <v>9008</v>
       </c>
       <c r="Z75" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AA75" s="14">
         <v>9008</v>
       </c>
       <c r="AB75" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AC75" s="25" t="s">
         <v>135</v>
@@ -8983,13 +8983,13 @@
         <v>9008</v>
       </c>
       <c r="Z76" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AA76" s="14">
         <v>9008</v>
       </c>
       <c r="AB76" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="AC76" s="25" t="s">
         <v>135</v>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58045B73-9422-473C-A213-EFEAF2A42DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FA383-8286-407C-971D-C1844FFE24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="268">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -813,11 +813,6 @@
   </si>
   <si>
     <t>월간 패스
-12월 월간패스 보상에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월간 패스
 1월 월간패스 보상에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,6 +982,87 @@
   <si>
     <t>도적단
 진시황에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook76</t>
+  </si>
+  <si>
+    <t>magicBook77</t>
+  </si>
+  <si>
+    <t>magicBook78</t>
+  </si>
+  <si>
+    <t>magicBook79</t>
+  </si>
+  <si>
+    <t>5월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook80</t>
+  </si>
+  <si>
+    <t>심연
+암흑무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+칠흑무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+타락무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+혼돈무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑무사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠흑무사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타락무사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈무사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+무명무사에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무명무사 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12월 월간훈련에서 획득!
+(2022)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,11 +1598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AF82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC80" sqref="AC80"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1847,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -1945,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
@@ -2043,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
@@ -2141,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
@@ -2239,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
@@ -2337,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -2435,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2533,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2631,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2729,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -2827,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2925,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3023,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3121,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3219,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3317,7 +3393,7 @@
         <v>500000</v>
       </c>
       <c r="AF18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3415,7 +3491,7 @@
         <v>500000</v>
       </c>
       <c r="AF19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3513,7 +3589,7 @@
         <v>500000</v>
       </c>
       <c r="AF20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3611,7 +3687,7 @@
         <v>500000</v>
       </c>
       <c r="AF21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -3709,7 +3785,7 @@
         <v>500000</v>
       </c>
       <c r="AF22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -3807,7 +3883,7 @@
         <v>500000</v>
       </c>
       <c r="AF23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:32" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6159,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="27" t="s">
-        <v>206</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6649,7 +6725,7 @@
         <v>1000000</v>
       </c>
       <c r="AF52" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6747,7 +6823,7 @@
         <v>10000000</v>
       </c>
       <c r="AF53" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6845,7 +6921,7 @@
         <v>10000000</v>
       </c>
       <c r="AF54" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6943,7 +7019,7 @@
         <v>10000000</v>
       </c>
       <c r="AF55" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -7041,7 +7117,7 @@
         <v>15000000</v>
       </c>
       <c r="AF56" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -7139,7 +7215,7 @@
         <v>15000000</v>
       </c>
       <c r="AF57" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7237,7 +7313,7 @@
         <v>1000000</v>
       </c>
       <c r="AF58" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7335,7 +7411,7 @@
         <v>15000000</v>
       </c>
       <c r="AF59" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7433,7 +7509,7 @@
         <v>15000000</v>
       </c>
       <c r="AF60" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7531,7 +7607,7 @@
         <v>15000000</v>
       </c>
       <c r="AF61" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7629,7 +7705,7 @@
         <v>15000000</v>
       </c>
       <c r="AF62" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7727,7 +7803,7 @@
         <v>15000000</v>
       </c>
       <c r="AF63" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -7825,7 +7901,7 @@
         <v>1000000</v>
       </c>
       <c r="AF64" s="27" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7833,10 +7909,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D65" s="25">
         <v>26</v>
@@ -7923,7 +7999,7 @@
         <v>30000000</v>
       </c>
       <c r="AF65" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -7931,10 +8007,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="25">
         <v>26</v>
@@ -8021,7 +8097,7 @@
         <v>30000000</v>
       </c>
       <c r="AF66" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8029,10 +8105,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67" s="25">
         <v>26</v>
@@ -8119,7 +8195,7 @@
         <v>30000000</v>
       </c>
       <c r="AF67" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8127,10 +8203,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D68" s="25">
         <v>26</v>
@@ -8217,7 +8293,7 @@
         <v>30000000</v>
       </c>
       <c r="AF68" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8225,10 +8301,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D69" s="25">
         <v>26</v>
@@ -8315,7 +8391,7 @@
         <v>50000000</v>
       </c>
       <c r="AF69" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8323,10 +8399,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D70" s="25">
         <v>26</v>
@@ -8413,7 +8489,7 @@
         <v>50000000</v>
       </c>
       <c r="AF70" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8421,10 +8497,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D71" s="25">
         <v>26</v>
@@ -8511,7 +8587,7 @@
         <v>50000000</v>
       </c>
       <c r="AF71" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8519,10 +8595,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="D72" s="10">
         <v>9</v>
@@ -8609,7 +8685,7 @@
         <v>1000000</v>
       </c>
       <c r="AF72" s="27" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8617,10 +8693,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D73" s="25">
         <v>26</v>
@@ -8704,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="AE73" s="9">
-        <v>30000000</v>
+        <v>70000000</v>
       </c>
       <c r="AF73" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8715,10 +8791,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D74" s="25">
         <v>26</v>
@@ -8802,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="AE74" s="9">
-        <v>50000000</v>
+        <v>70000000</v>
       </c>
       <c r="AF74" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8813,10 +8889,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D75" s="25">
         <v>26</v>
@@ -8900,10 +8976,10 @@
         <v>0</v>
       </c>
       <c r="AE75" s="9">
-        <v>50000000</v>
+        <v>70000000</v>
       </c>
       <c r="AF75" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="33" x14ac:dyDescent="0.3">
@@ -8911,10 +8987,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D76" s="25">
         <v>26</v>
@@ -8998,10 +9074,598 @@
         <v>0</v>
       </c>
       <c r="AE76" s="9">
-        <v>50000000</v>
+        <v>70000000</v>
       </c>
       <c r="AF76" s="27" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
+        <v>75</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" s="25">
+        <v>27</v>
+      </c>
+      <c r="E77" s="25">
+        <v>4</v>
+      </c>
+      <c r="F77" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G77" s="25">
+        <v>200</v>
+      </c>
+      <c r="H77" s="25">
+        <v>154</v>
+      </c>
+      <c r="I77" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="26">
+        <v>0</v>
+      </c>
+      <c r="K77" s="26">
+        <v>0</v>
+      </c>
+      <c r="L77" s="26">
+        <v>0</v>
+      </c>
+      <c r="M77" s="26">
+        <v>0</v>
+      </c>
+      <c r="N77" s="26">
+        <v>0</v>
+      </c>
+      <c r="O77" s="26">
+        <v>0</v>
+      </c>
+      <c r="P77" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="26">
+        <v>0</v>
+      </c>
+      <c r="R77" s="26">
+        <v>0</v>
+      </c>
+      <c r="S77" s="26">
+        <v>0</v>
+      </c>
+      <c r="T77" s="25">
+        <v>2</v>
+      </c>
+      <c r="U77" s="25">
+        <v>10</v>
+      </c>
+      <c r="V77" s="25">
+        <v>1</v>
+      </c>
+      <c r="W77" s="25">
+        <v>7</v>
+      </c>
+      <c r="X77" s="25">
+        <v>86000</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z77" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB77" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AC77" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD77" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="AF77" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
+        <v>76</v>
+      </c>
+      <c r="B78" s="25" t="s">
         <v>248</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D78" s="25">
+        <v>27</v>
+      </c>
+      <c r="E78" s="25">
+        <v>4</v>
+      </c>
+      <c r="F78" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G78" s="25">
+        <v>200</v>
+      </c>
+      <c r="H78" s="25">
+        <v>159</v>
+      </c>
+      <c r="I78" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="26">
+        <v>0</v>
+      </c>
+      <c r="K78" s="26">
+        <v>0</v>
+      </c>
+      <c r="L78" s="26">
+        <v>0</v>
+      </c>
+      <c r="M78" s="26">
+        <v>0</v>
+      </c>
+      <c r="N78" s="26">
+        <v>0</v>
+      </c>
+      <c r="O78" s="26">
+        <v>0</v>
+      </c>
+      <c r="P78" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="26">
+        <v>0</v>
+      </c>
+      <c r="R78" s="26">
+        <v>0</v>
+      </c>
+      <c r="S78" s="26">
+        <v>0</v>
+      </c>
+      <c r="T78" s="25">
+        <v>2</v>
+      </c>
+      <c r="U78" s="25">
+        <v>10</v>
+      </c>
+      <c r="V78" s="25">
+        <v>1</v>
+      </c>
+      <c r="W78" s="25">
+        <v>7</v>
+      </c>
+      <c r="X78" s="25">
+        <v>88000</v>
+      </c>
+      <c r="Y78" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z78" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB78" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AC78" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD78" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="AF78" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
+        <v>77</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D79" s="25">
+        <v>27</v>
+      </c>
+      <c r="E79" s="25">
+        <v>4</v>
+      </c>
+      <c r="F79" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G79" s="25">
+        <v>200</v>
+      </c>
+      <c r="H79" s="25">
+        <v>160</v>
+      </c>
+      <c r="I79" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" s="26">
+        <v>0</v>
+      </c>
+      <c r="K79" s="26">
+        <v>0</v>
+      </c>
+      <c r="L79" s="26">
+        <v>0</v>
+      </c>
+      <c r="M79" s="26">
+        <v>0</v>
+      </c>
+      <c r="N79" s="26">
+        <v>0</v>
+      </c>
+      <c r="O79" s="26">
+        <v>0</v>
+      </c>
+      <c r="P79" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="26">
+        <v>0</v>
+      </c>
+      <c r="R79" s="26">
+        <v>0</v>
+      </c>
+      <c r="S79" s="26">
+        <v>0</v>
+      </c>
+      <c r="T79" s="25">
+        <v>2</v>
+      </c>
+      <c r="U79" s="25">
+        <v>10</v>
+      </c>
+      <c r="V79" s="25">
+        <v>1</v>
+      </c>
+      <c r="W79" s="25">
+        <v>7</v>
+      </c>
+      <c r="X79" s="25">
+        <v>90000</v>
+      </c>
+      <c r="Y79" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z79" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB79" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AC79" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD79" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="AF79" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="25">
+        <v>78</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="25">
+        <v>27</v>
+      </c>
+      <c r="E80" s="25">
+        <v>4</v>
+      </c>
+      <c r="F80" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G80" s="25">
+        <v>200</v>
+      </c>
+      <c r="H80" s="25">
+        <v>161</v>
+      </c>
+      <c r="I80" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" s="26">
+        <v>0</v>
+      </c>
+      <c r="K80" s="26">
+        <v>0</v>
+      </c>
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+      <c r="N80" s="26">
+        <v>0</v>
+      </c>
+      <c r="O80" s="26">
+        <v>0</v>
+      </c>
+      <c r="P80" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="26">
+        <v>0</v>
+      </c>
+      <c r="R80" s="26">
+        <v>0</v>
+      </c>
+      <c r="S80" s="26">
+        <v>0</v>
+      </c>
+      <c r="T80" s="25">
+        <v>2</v>
+      </c>
+      <c r="U80" s="25">
+        <v>10</v>
+      </c>
+      <c r="V80" s="25">
+        <v>1</v>
+      </c>
+      <c r="W80" s="25">
+        <v>7</v>
+      </c>
+      <c r="X80" s="25">
+        <v>92000</v>
+      </c>
+      <c r="Y80" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z80" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB80" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AC80" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD80" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE80" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="AF80" s="27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="25">
+        <v>79</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D81" s="25">
+        <v>27</v>
+      </c>
+      <c r="E81" s="25">
+        <v>4</v>
+      </c>
+      <c r="F81" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G81" s="25">
+        <v>200</v>
+      </c>
+      <c r="H81" s="25">
+        <v>162</v>
+      </c>
+      <c r="I81" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" s="26">
+        <v>0</v>
+      </c>
+      <c r="K81" s="26">
+        <v>0</v>
+      </c>
+      <c r="L81" s="26">
+        <v>0</v>
+      </c>
+      <c r="M81" s="26">
+        <v>0</v>
+      </c>
+      <c r="N81" s="26">
+        <v>0</v>
+      </c>
+      <c r="O81" s="26">
+        <v>0</v>
+      </c>
+      <c r="P81" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="26">
+        <v>0</v>
+      </c>
+      <c r="R81" s="26">
+        <v>0</v>
+      </c>
+      <c r="S81" s="26">
+        <v>0</v>
+      </c>
+      <c r="T81" s="25">
+        <v>2</v>
+      </c>
+      <c r="U81" s="25">
+        <v>10</v>
+      </c>
+      <c r="V81" s="25">
+        <v>1</v>
+      </c>
+      <c r="W81" s="25">
+        <v>7</v>
+      </c>
+      <c r="X81" s="25">
+        <v>94000</v>
+      </c>
+      <c r="Y81" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z81" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AA81" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB81" s="14">
+        <v>50000</v>
+      </c>
+      <c r="AC81" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD81" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="AF81" s="27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="25">
+        <v>80</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D82" s="10">
+        <v>9</v>
+      </c>
+      <c r="E82" s="10">
+        <v>4</v>
+      </c>
+      <c r="F82" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G82" s="10">
+        <v>200</v>
+      </c>
+      <c r="H82" s="10">
+        <v>75</v>
+      </c>
+      <c r="I82" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0</v>
+      </c>
+      <c r="K82" s="11">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11">
+        <v>0</v>
+      </c>
+      <c r="M82" s="11">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0</v>
+      </c>
+      <c r="O82" s="11">
+        <v>0</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>0</v>
+      </c>
+      <c r="R82" s="11">
+        <v>0</v>
+      </c>
+      <c r="S82" s="11">
+        <v>0</v>
+      </c>
+      <c r="T82" s="10">
+        <v>2</v>
+      </c>
+      <c r="U82" s="10">
+        <v>10</v>
+      </c>
+      <c r="V82" s="10">
+        <v>1</v>
+      </c>
+      <c r="W82" s="10">
+        <v>7</v>
+      </c>
+      <c r="X82" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD82" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE82" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF82" s="27" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2FA383-8286-407C-971D-C1844FFE24A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3CB7F-E7B4-4358-8E93-75885C9D1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="269">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,6 +1064,9 @@
     <t>12월 월간훈련에서 획득!
 (2022)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayOrder</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1168,6 +1171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1189,7 +1198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1273,6 +1282,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1598,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AF82"/>
+  <dimension ref="A1:AG82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG75" sqref="AG75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1632,7 +1644,7 @@
     <col min="32" max="32" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1729,8 +1741,11 @@
       <c r="AF1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1827,8 +1842,11 @@
       <c r="AF2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG2" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1925,8 +1943,11 @@
       <c r="AF3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG3" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2023,8 +2044,11 @@
       <c r="AF4" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG4" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2121,8 +2145,11 @@
       <c r="AF5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG5" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2219,8 +2246,11 @@
       <c r="AF6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG6" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2317,8 +2347,11 @@
       <c r="AF7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG7" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2415,8 +2448,11 @@
       <c r="AF8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG8" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2513,8 +2549,11 @@
       <c r="AF9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG9" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2611,8 +2650,11 @@
       <c r="AF10" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG10" s="28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2709,8 +2751,11 @@
       <c r="AF11" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG11" s="28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2807,8 +2852,11 @@
       <c r="AF12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG12" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2905,8 +2953,11 @@
       <c r="AF13" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG13" s="28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3003,8 +3054,11 @@
       <c r="AF14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG14" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3101,8 +3155,11 @@
       <c r="AF15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG15" s="28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3199,8 +3256,11 @@
       <c r="AF16" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG16" s="28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3297,8 +3357,11 @@
       <c r="AF17" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG17" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>16</v>
       </c>
@@ -3395,8 +3458,11 @@
       <c r="AF18" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG18" s="28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>17</v>
       </c>
@@ -3493,8 +3559,11 @@
       <c r="AF19" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG19" s="28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>18</v>
       </c>
@@ -3591,8 +3660,11 @@
       <c r="AF20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG20" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>19</v>
       </c>
@@ -3689,8 +3761,11 @@
       <c r="AF21" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG21" s="28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>20</v>
       </c>
@@ -3787,8 +3862,11 @@
       <c r="AF22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AG22" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>21</v>
       </c>
@@ -3885,8 +3963,11 @@
       <c r="AF23" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="24" spans="1:32" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG23" s="28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>22</v>
       </c>
@@ -3983,8 +4064,11 @@
       <c r="AF24" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG24" s="28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -4081,8 +4165,11 @@
       <c r="AF25" s="27" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG25" s="28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>24</v>
       </c>
@@ -4179,8 +4266,11 @@
       <c r="AF26" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG26" s="28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" s="17" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>25</v>
       </c>
@@ -4277,8 +4367,11 @@
       <c r="AF27" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG27" s="28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>26</v>
       </c>
@@ -4375,8 +4468,11 @@
       <c r="AF28" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG28" s="28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>27</v>
       </c>
@@ -4473,8 +4569,11 @@
       <c r="AF29" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="30" spans="1:32" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG29" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" s="17" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>28</v>
       </c>
@@ -4571,8 +4670,11 @@
       <c r="AF30" s="27" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:32" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG30" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" s="17" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>29</v>
       </c>
@@ -4669,8 +4771,11 @@
       <c r="AF31" s="27" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="32" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG31" s="28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>30</v>
       </c>
@@ -4767,8 +4872,11 @@
       <c r="AF32" s="27" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG32" s="28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>31</v>
       </c>
@@ -4865,8 +4973,11 @@
       <c r="AF33" s="27" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG33" s="28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4963,8 +5074,11 @@
       <c r="AF34" s="27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="35" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG34" s="28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>33</v>
       </c>
@@ -5061,8 +5175,11 @@
       <c r="AF35" s="27" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG35" s="28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>34</v>
       </c>
@@ -5159,8 +5276,11 @@
       <c r="AF36" s="27" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="37" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG36" s="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <v>35</v>
       </c>
@@ -5257,8 +5377,11 @@
       <c r="AF37" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG37" s="28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <v>36</v>
       </c>
@@ -5355,8 +5478,11 @@
       <c r="AF38" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG38" s="28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <v>37</v>
       </c>
@@ -5453,8 +5579,11 @@
       <c r="AF39" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG39" s="28">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <v>38</v>
       </c>
@@ -5551,8 +5680,11 @@
       <c r="AF40" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG40" s="28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <v>39</v>
       </c>
@@ -5649,8 +5781,11 @@
       <c r="AF41" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG41" s="28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <v>40</v>
       </c>
@@ -5747,8 +5882,11 @@
       <c r="AF42" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG42" s="28">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <v>41</v>
       </c>
@@ -5845,8 +5983,11 @@
       <c r="AF43" s="27" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG43" s="28">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <v>42</v>
       </c>
@@ -5943,8 +6084,11 @@
       <c r="AF44" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG44" s="28">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <v>43</v>
       </c>
@@ -6041,8 +6185,11 @@
       <c r="AF45" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG45" s="28">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <v>44</v>
       </c>
@@ -6139,8 +6286,11 @@
       <c r="AF46" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG46" s="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>45</v>
       </c>
@@ -6237,8 +6387,11 @@
       <c r="AF47" s="27" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG47" s="28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <v>46</v>
       </c>
@@ -6335,8 +6488,11 @@
       <c r="AF48" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="49" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG48" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <v>47</v>
       </c>
@@ -6433,8 +6589,11 @@
       <c r="AF49" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="50" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG49" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <v>48</v>
       </c>
@@ -6531,8 +6690,11 @@
       <c r="AF50" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="51" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG50" s="28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <v>49</v>
       </c>
@@ -6629,8 +6791,11 @@
       <c r="AF51" s="27" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="52" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG51" s="28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -6727,8 +6892,11 @@
       <c r="AF52" s="27" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="53" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG52" s="28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <v>51</v>
       </c>
@@ -6825,8 +6993,11 @@
       <c r="AF53" s="27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG53" s="28">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <v>52</v>
       </c>
@@ -6923,8 +7094,11 @@
       <c r="AF54" s="27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="55" spans="1:32" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="AG54" s="28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="23" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <v>53</v>
       </c>
@@ -7021,8 +7195,11 @@
       <c r="AF55" s="27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG55" s="28">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>54</v>
       </c>
@@ -7119,8 +7296,11 @@
       <c r="AF56" s="27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="57" spans="1:32" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG56" s="28">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="25" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>55</v>
       </c>
@@ -7217,8 +7397,11 @@
       <c r="AF57" s="27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG57" s="28">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -7315,8 +7498,11 @@
       <c r="AF58" s="27" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="59" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG58" s="28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>57</v>
       </c>
@@ -7413,8 +7599,11 @@
       <c r="AF59" s="27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="60" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG59" s="28">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>58</v>
       </c>
@@ -7511,8 +7700,11 @@
       <c r="AF60" s="27" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="61" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG60" s="28">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>59</v>
       </c>
@@ -7609,8 +7801,11 @@
       <c r="AF61" s="27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="62" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG61" s="28">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>60</v>
       </c>
@@ -7707,8 +7902,11 @@
       <c r="AF62" s="27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="63" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG62" s="28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>61</v>
       </c>
@@ -7805,8 +8003,11 @@
       <c r="AF63" s="27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="64" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG63" s="28">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -7903,8 +8104,11 @@
       <c r="AF64" s="27" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="65" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG64" s="28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>63</v>
       </c>
@@ -8001,8 +8205,11 @@
       <c r="AF65" s="27" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG65" s="28">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>64</v>
       </c>
@@ -8099,8 +8306,11 @@
       <c r="AF66" s="27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="67" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG66" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>65</v>
       </c>
@@ -8197,8 +8407,11 @@
       <c r="AF67" s="27" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="68" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG67" s="28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>66</v>
       </c>
@@ -8295,8 +8508,11 @@
       <c r="AF68" s="27" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="69" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG68" s="28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>67</v>
       </c>
@@ -8393,8 +8609,11 @@
       <c r="AF69" s="27" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="70" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG69" s="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>68</v>
       </c>
@@ -8491,8 +8710,11 @@
       <c r="AF70" s="27" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="71" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG70" s="28">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>69</v>
       </c>
@@ -8589,8 +8811,11 @@
       <c r="AF71" s="27" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="72" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG71" s="28">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>70</v>
       </c>
@@ -8687,8 +8912,11 @@
       <c r="AF72" s="27" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="73" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG72" s="28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>71</v>
       </c>
@@ -8785,8 +9013,11 @@
       <c r="AF73" s="27" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="74" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG73" s="28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>72</v>
       </c>
@@ -8883,8 +9114,11 @@
       <c r="AF74" s="27" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="75" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG74" s="28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>73</v>
       </c>
@@ -8981,8 +9215,11 @@
       <c r="AF75" s="27" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="76" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG75" s="28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>74</v>
       </c>
@@ -9079,8 +9316,11 @@
       <c r="AF76" s="27" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="77" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG76" s="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>75</v>
       </c>
@@ -9177,8 +9417,11 @@
       <c r="AF77" s="27" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="78" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG77" s="28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>76</v>
       </c>
@@ -9275,8 +9518,11 @@
       <c r="AF78" s="27" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="79" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG78" s="28">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>77</v>
       </c>
@@ -9373,8 +9619,11 @@
       <c r="AF79" s="27" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="80" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG79" s="28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>78</v>
       </c>
@@ -9471,8 +9720,11 @@
       <c r="AF80" s="27" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" ht="33" x14ac:dyDescent="0.3">
+      <c r="AG80" s="28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>79</v>
       </c>
@@ -9569,8 +9821,11 @@
       <c r="AF81" s="27" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="82" spans="1:32" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG81" s="28">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>80</v>
       </c>
@@ -9666,6 +9921,9 @@
       </c>
       <c r="AF82" s="27" t="s">
         <v>208</v>
+      </c>
+      <c r="AG82" s="28">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A3CB7F-E7B4-4358-8E93-75885C9D1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903402D-0111-4EB2-A5D8-08E2E2A1A3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="278">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1067,6 +1067,42 @@
   </si>
   <si>
     <t>displayOrder</t>
+  </si>
+  <si>
+    <t>magicBook81</t>
+  </si>
+  <si>
+    <t>magicBook82</t>
+  </si>
+  <si>
+    <t>magicBook83</t>
+  </si>
+  <si>
+    <t>무명왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암흑왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불사왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+무명왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+암흑왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심연
+불사왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1610,11 +1646,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG82"/>
+  <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG75" sqref="AG75"/>
+      <selection pane="bottomLeft" activeCell="AE84" sqref="AE84:AE85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9924,6 +9960,309 @@
       </c>
       <c r="AG82" s="28">
         <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="25">
+        <v>81</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D83" s="25">
+        <v>27</v>
+      </c>
+      <c r="E83" s="25">
+        <v>4</v>
+      </c>
+      <c r="F83" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G83" s="25">
+        <v>200</v>
+      </c>
+      <c r="H83" s="25">
+        <v>166</v>
+      </c>
+      <c r="I83" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="26">
+        <v>0</v>
+      </c>
+      <c r="K83" s="26">
+        <v>0</v>
+      </c>
+      <c r="L83" s="26">
+        <v>0</v>
+      </c>
+      <c r="M83" s="26">
+        <v>0</v>
+      </c>
+      <c r="N83" s="26">
+        <v>0</v>
+      </c>
+      <c r="O83" s="26">
+        <v>0</v>
+      </c>
+      <c r="P83" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="26">
+        <v>0</v>
+      </c>
+      <c r="R83" s="26">
+        <v>0</v>
+      </c>
+      <c r="S83" s="26">
+        <v>0</v>
+      </c>
+      <c r="T83" s="25">
+        <v>2</v>
+      </c>
+      <c r="U83" s="25">
+        <v>10</v>
+      </c>
+      <c r="V83" s="25">
+        <v>1</v>
+      </c>
+      <c r="W83" s="25">
+        <v>7</v>
+      </c>
+      <c r="X83" s="25">
+        <v>96000</v>
+      </c>
+      <c r="Y83" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z83" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB83" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AC83" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD83" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="AF83" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG83" s="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A84" s="25">
+        <v>82</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="25">
+        <v>27</v>
+      </c>
+      <c r="E84" s="25">
+        <v>4</v>
+      </c>
+      <c r="F84" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G84" s="25">
+        <v>200</v>
+      </c>
+      <c r="H84" s="25">
+        <v>167</v>
+      </c>
+      <c r="I84" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="26">
+        <v>0</v>
+      </c>
+      <c r="K84" s="26">
+        <v>0</v>
+      </c>
+      <c r="L84" s="26">
+        <v>0</v>
+      </c>
+      <c r="M84" s="26">
+        <v>0</v>
+      </c>
+      <c r="N84" s="26">
+        <v>0</v>
+      </c>
+      <c r="O84" s="26">
+        <v>0</v>
+      </c>
+      <c r="P84" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="26">
+        <v>0</v>
+      </c>
+      <c r="R84" s="26">
+        <v>0</v>
+      </c>
+      <c r="S84" s="26">
+        <v>0</v>
+      </c>
+      <c r="T84" s="25">
+        <v>2</v>
+      </c>
+      <c r="U84" s="25">
+        <v>10</v>
+      </c>
+      <c r="V84" s="25">
+        <v>1</v>
+      </c>
+      <c r="W84" s="25">
+        <v>7</v>
+      </c>
+      <c r="X84" s="25">
+        <v>98000</v>
+      </c>
+      <c r="Y84" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z84" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB84" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AC84" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD84" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="AF84" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="AG84" s="28">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="25">
+        <v>83</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="D85" s="25">
+        <v>27</v>
+      </c>
+      <c r="E85" s="25">
+        <v>4</v>
+      </c>
+      <c r="F85" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G85" s="25">
+        <v>200</v>
+      </c>
+      <c r="H85" s="25">
+        <v>168</v>
+      </c>
+      <c r="I85" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="26">
+        <v>0</v>
+      </c>
+      <c r="K85" s="26">
+        <v>0</v>
+      </c>
+      <c r="L85" s="26">
+        <v>0</v>
+      </c>
+      <c r="M85" s="26">
+        <v>0</v>
+      </c>
+      <c r="N85" s="26">
+        <v>0</v>
+      </c>
+      <c r="O85" s="26">
+        <v>0</v>
+      </c>
+      <c r="P85" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="26">
+        <v>0</v>
+      </c>
+      <c r="R85" s="26">
+        <v>0</v>
+      </c>
+      <c r="S85" s="26">
+        <v>0</v>
+      </c>
+      <c r="T85" s="25">
+        <v>2</v>
+      </c>
+      <c r="U85" s="25">
+        <v>10</v>
+      </c>
+      <c r="V85" s="25">
+        <v>1</v>
+      </c>
+      <c r="W85" s="25">
+        <v>7</v>
+      </c>
+      <c r="X85" s="25">
+        <v>100000</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z85" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB85" s="14">
+        <v>60000</v>
+      </c>
+      <c r="AC85" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD85" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="AF85" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG85" s="28">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903402D-0111-4EB2-A5D8-08E2E2A1A3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1E4C6-55C2-4A40-99EB-5CBBFCBFFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="290">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,21 +812,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>월간 패스
-1월 월간패스 보상에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월간 패스
-2월 월간패스 보상에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>월간 패스
-3월 월간패스 보상에서 획득!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비 나라
 도깨비 우두머리에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1087,65 @@
   <si>
     <t>심연
 불사왕에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook84</t>
+  </si>
+  <si>
+    <t>magicBook85</t>
+  </si>
+  <si>
+    <t>magicBook86</t>
+  </si>
+  <si>
+    <t>방랑신선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광명신선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서월신선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+방랑신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+광명신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+서월신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook87</t>
+  </si>
+  <si>
+    <t>6월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1646,11 +1690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:AG89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE84" sqref="AE84:AE85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1778,7 +1822,7 @@
         <v>197</v>
       </c>
       <c r="AG1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -1876,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG2" s="28">
         <v>0</v>
@@ -1977,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG3" s="28">
         <v>1</v>
@@ -2078,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG4" s="28">
         <v>2</v>
@@ -2179,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG5" s="28">
         <v>3</v>
@@ -2280,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG6" s="28">
         <v>4</v>
@@ -2381,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AF7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG7" s="28">
         <v>5</v>
@@ -2482,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG8" s="28">
         <v>6</v>
@@ -2583,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="AF9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG9" s="28">
         <v>7</v>
@@ -2684,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="AF10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG10" s="28">
         <v>8</v>
@@ -2785,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG11" s="28">
         <v>9</v>
@@ -2886,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG12" s="28">
         <v>10</v>
@@ -2987,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AF13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG13" s="28">
         <v>11</v>
@@ -3088,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="AF14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG14" s="28">
         <v>12</v>
@@ -3189,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AF15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG15" s="28">
         <v>13</v>
@@ -3290,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AF16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG16" s="28">
         <v>14</v>
@@ -3391,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG17" s="28">
         <v>15</v>
@@ -3492,7 +3536,7 @@
         <v>500000</v>
       </c>
       <c r="AF18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG18" s="28">
         <v>16</v>
@@ -3593,7 +3637,7 @@
         <v>500000</v>
       </c>
       <c r="AF19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG19" s="28">
         <v>17</v>
@@ -3694,7 +3738,7 @@
         <v>500000</v>
       </c>
       <c r="AF20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG20" s="28">
         <v>18</v>
@@ -3795,7 +3839,7 @@
         <v>500000</v>
       </c>
       <c r="AF21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG21" s="28">
         <v>19</v>
@@ -3896,7 +3940,7 @@
         <v>500000</v>
       </c>
       <c r="AF22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG22" s="28">
         <v>20</v>
@@ -3997,7 +4041,7 @@
         <v>500000</v>
       </c>
       <c r="AF23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG23" s="28">
         <v>21</v>
@@ -6421,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG47" s="28">
         <v>45</v>
@@ -6926,7 +6970,7 @@
         <v>1000000</v>
       </c>
       <c r="AF52" s="27" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="AG52" s="28">
         <v>50</v>
@@ -7027,7 +7071,7 @@
         <v>10000000</v>
       </c>
       <c r="AF53" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG53" s="28">
         <v>51</v>
@@ -7128,7 +7172,7 @@
         <v>10000000</v>
       </c>
       <c r="AF54" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG54" s="28">
         <v>52</v>
@@ -7229,7 +7273,7 @@
         <v>10000000</v>
       </c>
       <c r="AF55" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AG55" s="28">
         <v>53</v>
@@ -7330,7 +7374,7 @@
         <v>15000000</v>
       </c>
       <c r="AF56" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG56" s="28">
         <v>54</v>
@@ -7431,7 +7475,7 @@
         <v>15000000</v>
       </c>
       <c r="AF57" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG57" s="28">
         <v>55</v>
@@ -7532,7 +7576,7 @@
         <v>1000000</v>
       </c>
       <c r="AF58" s="27" t="s">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="AG58" s="28">
         <v>56</v>
@@ -7633,7 +7677,7 @@
         <v>15000000</v>
       </c>
       <c r="AF59" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG59" s="28">
         <v>57</v>
@@ -7734,7 +7778,7 @@
         <v>15000000</v>
       </c>
       <c r="AF60" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AG60" s="28">
         <v>58</v>
@@ -7835,7 +7879,7 @@
         <v>15000000</v>
       </c>
       <c r="AF61" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG61" s="28">
         <v>59</v>
@@ -7936,7 +7980,7 @@
         <v>15000000</v>
       </c>
       <c r="AF62" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG62" s="28">
         <v>60</v>
@@ -8037,7 +8081,7 @@
         <v>15000000</v>
       </c>
       <c r="AF63" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AG63" s="28">
         <v>61</v>
@@ -8138,7 +8182,7 @@
         <v>1000000</v>
       </c>
       <c r="AF64" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG64" s="28">
         <v>62</v>
@@ -8149,10 +8193,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D65" s="25">
         <v>26</v>
@@ -8239,7 +8283,7 @@
         <v>30000000</v>
       </c>
       <c r="AF65" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG65" s="28">
         <v>63</v>
@@ -8250,10 +8294,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D66" s="25">
         <v>26</v>
@@ -8340,7 +8384,7 @@
         <v>30000000</v>
       </c>
       <c r="AF66" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG66" s="28">
         <v>64</v>
@@ -8351,10 +8395,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D67" s="25">
         <v>26</v>
@@ -8441,7 +8485,7 @@
         <v>30000000</v>
       </c>
       <c r="AF67" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG67" s="28">
         <v>65</v>
@@ -8452,10 +8496,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D68" s="25">
         <v>26</v>
@@ -8542,7 +8586,7 @@
         <v>30000000</v>
       </c>
       <c r="AF68" s="27" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG68" s="28">
         <v>66</v>
@@ -8553,10 +8597,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D69" s="25">
         <v>26</v>
@@ -8643,7 +8687,7 @@
         <v>50000000</v>
       </c>
       <c r="AF69" s="27" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AG69" s="28">
         <v>67</v>
@@ -8654,10 +8698,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D70" s="25">
         <v>26</v>
@@ -8744,7 +8788,7 @@
         <v>50000000</v>
       </c>
       <c r="AF70" s="27" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG70" s="28">
         <v>68</v>
@@ -8755,10 +8799,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D71" s="25">
         <v>26</v>
@@ -8845,7 +8889,7 @@
         <v>50000000</v>
       </c>
       <c r="AF71" s="27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG71" s="28">
         <v>69</v>
@@ -8856,10 +8900,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D72" s="10">
         <v>9</v>
@@ -8946,7 +8990,7 @@
         <v>1000000</v>
       </c>
       <c r="AF72" s="27" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG72" s="28">
         <v>70</v>
@@ -8957,10 +9001,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D73" s="25">
         <v>26</v>
@@ -9047,7 +9091,7 @@
         <v>70000000</v>
       </c>
       <c r="AF73" s="27" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AG73" s="28">
         <v>71</v>
@@ -9058,10 +9102,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D74" s="25">
         <v>26</v>
@@ -9148,7 +9192,7 @@
         <v>70000000</v>
       </c>
       <c r="AF74" s="27" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG74" s="28">
         <v>72</v>
@@ -9159,10 +9203,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D75" s="25">
         <v>26</v>
@@ -9249,7 +9293,7 @@
         <v>70000000</v>
       </c>
       <c r="AF75" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AG75" s="28">
         <v>73</v>
@@ -9260,10 +9304,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D76" s="25">
         <v>26</v>
@@ -9350,7 +9394,7 @@
         <v>70000000</v>
       </c>
       <c r="AF76" s="27" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG76" s="28">
         <v>74</v>
@@ -9361,10 +9405,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D77" s="25">
         <v>27</v>
@@ -9451,7 +9495,7 @@
         <v>90000000</v>
       </c>
       <c r="AF77" s="27" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AG77" s="28">
         <v>75</v>
@@ -9462,10 +9506,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D78" s="25">
         <v>27</v>
@@ -9552,7 +9596,7 @@
         <v>90000000</v>
       </c>
       <c r="AF78" s="27" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AG78" s="28">
         <v>76</v>
@@ -9563,10 +9607,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D79" s="25">
         <v>27</v>
@@ -9653,7 +9697,7 @@
         <v>90000000</v>
       </c>
       <c r="AF79" s="27" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG79" s="28">
         <v>77</v>
@@ -9664,10 +9708,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D80" s="25">
         <v>27</v>
@@ -9754,7 +9798,7 @@
         <v>90000000</v>
       </c>
       <c r="AF80" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG80" s="28">
         <v>78</v>
@@ -9765,10 +9809,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D81" s="25">
         <v>27</v>
@@ -9855,7 +9899,7 @@
         <v>90000000</v>
       </c>
       <c r="AF81" s="27" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="AG81" s="28">
         <v>79</v>
@@ -9866,10 +9910,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D82" s="10">
         <v>9</v>
@@ -9956,7 +10000,7 @@
         <v>1000000</v>
       </c>
       <c r="AF82" s="27" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="AG82" s="28">
         <v>80</v>
@@ -9967,10 +10011,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>272</v>
       </c>
       <c r="D83" s="25">
         <v>27</v>
@@ -10057,7 +10101,7 @@
         <v>110000000</v>
       </c>
       <c r="AF83" s="27" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AG83" s="28">
         <v>81</v>
@@ -10068,10 +10112,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>270</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>273</v>
       </c>
       <c r="D84" s="25">
         <v>27</v>
@@ -10158,7 +10202,7 @@
         <v>110000000</v>
       </c>
       <c r="AF84" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="AG84" s="28">
         <v>82</v>
@@ -10169,10 +10213,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>271</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>274</v>
       </c>
       <c r="D85" s="25">
         <v>27</v>
@@ -10259,10 +10303,414 @@
         <v>110000000</v>
       </c>
       <c r="AF85" s="27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AG85" s="28">
         <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A86" s="25">
+        <v>84</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="25">
+        <v>28</v>
+      </c>
+      <c r="E86" s="25">
+        <v>4</v>
+      </c>
+      <c r="F86" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G86" s="25">
+        <v>200</v>
+      </c>
+      <c r="H86" s="25">
+        <v>172</v>
+      </c>
+      <c r="I86" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" s="26">
+        <v>0</v>
+      </c>
+      <c r="K86" s="26">
+        <v>0</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="26">
+        <v>0</v>
+      </c>
+      <c r="N86" s="26">
+        <v>0</v>
+      </c>
+      <c r="O86" s="26">
+        <v>0</v>
+      </c>
+      <c r="P86" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>0</v>
+      </c>
+      <c r="R86" s="26">
+        <v>0</v>
+      </c>
+      <c r="S86" s="26">
+        <v>0</v>
+      </c>
+      <c r="T86" s="25">
+        <v>2</v>
+      </c>
+      <c r="U86" s="25">
+        <v>10</v>
+      </c>
+      <c r="V86" s="25">
+        <v>1</v>
+      </c>
+      <c r="W86" s="25">
+        <v>7</v>
+      </c>
+      <c r="X86" s="25">
+        <v>102000</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z86" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AC86" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD86" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="9">
+        <v>120000000</v>
+      </c>
+      <c r="AF86" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG86" s="28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A87" s="25">
+        <v>85</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D87" s="25">
+        <v>28</v>
+      </c>
+      <c r="E87" s="25">
+        <v>4</v>
+      </c>
+      <c r="F87" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G87" s="25">
+        <v>200</v>
+      </c>
+      <c r="H87" s="25">
+        <v>173</v>
+      </c>
+      <c r="I87" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" s="26">
+        <v>0</v>
+      </c>
+      <c r="K87" s="26">
+        <v>0</v>
+      </c>
+      <c r="L87" s="26">
+        <v>0</v>
+      </c>
+      <c r="M87" s="26">
+        <v>0</v>
+      </c>
+      <c r="N87" s="26">
+        <v>0</v>
+      </c>
+      <c r="O87" s="26">
+        <v>0</v>
+      </c>
+      <c r="P87" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>0</v>
+      </c>
+      <c r="R87" s="26">
+        <v>0</v>
+      </c>
+      <c r="S87" s="26">
+        <v>0</v>
+      </c>
+      <c r="T87" s="25">
+        <v>2</v>
+      </c>
+      <c r="U87" s="25">
+        <v>10</v>
+      </c>
+      <c r="V87" s="25">
+        <v>1</v>
+      </c>
+      <c r="W87" s="25">
+        <v>7</v>
+      </c>
+      <c r="X87" s="25">
+        <v>104000</v>
+      </c>
+      <c r="Y87" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z87" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB87" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AC87" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD87" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="9">
+        <v>120000000</v>
+      </c>
+      <c r="AF87" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG87" s="28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A88" s="25">
+        <v>86</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D88" s="25">
+        <v>28</v>
+      </c>
+      <c r="E88" s="25">
+        <v>4</v>
+      </c>
+      <c r="F88" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G88" s="25">
+        <v>200</v>
+      </c>
+      <c r="H88" s="25">
+        <v>174</v>
+      </c>
+      <c r="I88" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" s="26">
+        <v>0</v>
+      </c>
+      <c r="K88" s="26">
+        <v>0</v>
+      </c>
+      <c r="L88" s="26">
+        <v>0</v>
+      </c>
+      <c r="M88" s="26">
+        <v>0</v>
+      </c>
+      <c r="N88" s="26">
+        <v>0</v>
+      </c>
+      <c r="O88" s="26">
+        <v>0</v>
+      </c>
+      <c r="P88" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>0</v>
+      </c>
+      <c r="R88" s="26">
+        <v>0</v>
+      </c>
+      <c r="S88" s="26">
+        <v>0</v>
+      </c>
+      <c r="T88" s="25">
+        <v>2</v>
+      </c>
+      <c r="U88" s="25">
+        <v>10</v>
+      </c>
+      <c r="V88" s="25">
+        <v>1</v>
+      </c>
+      <c r="W88" s="25">
+        <v>7</v>
+      </c>
+      <c r="X88" s="25">
+        <v>106000</v>
+      </c>
+      <c r="Y88" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z88" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AA88" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB88" s="14">
+        <v>70000</v>
+      </c>
+      <c r="AC88" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD88" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="9">
+        <v>120000000</v>
+      </c>
+      <c r="AF88" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG88" s="28">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="25">
+        <v>87</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D89" s="10">
+        <v>9</v>
+      </c>
+      <c r="E89" s="10">
+        <v>4</v>
+      </c>
+      <c r="F89" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G89" s="10">
+        <v>200</v>
+      </c>
+      <c r="H89" s="10">
+        <v>75</v>
+      </c>
+      <c r="I89" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0</v>
+      </c>
+      <c r="K89" s="11">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11">
+        <v>0</v>
+      </c>
+      <c r="M89" s="11">
+        <v>0</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0</v>
+      </c>
+      <c r="O89" s="11">
+        <v>0</v>
+      </c>
+      <c r="P89" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="11">
+        <v>0</v>
+      </c>
+      <c r="R89" s="11">
+        <v>0</v>
+      </c>
+      <c r="S89" s="11">
+        <v>0</v>
+      </c>
+      <c r="T89" s="10">
+        <v>2</v>
+      </c>
+      <c r="U89" s="10">
+        <v>10</v>
+      </c>
+      <c r="V89" s="10">
+        <v>1</v>
+      </c>
+      <c r="W89" s="10">
+        <v>7</v>
+      </c>
+      <c r="X89" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD89" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF89" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG89" s="28">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B1E4C6-55C2-4A40-99EB-5CBBFCBFFB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831F315-1003-498A-A9AF-F8853C9C44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="299">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1146,6 +1146,42 @@
   </si>
   <si>
     <t>1월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook88</t>
+  </si>
+  <si>
+    <t>magicBook89</t>
+  </si>
+  <si>
+    <t>magicBook90</t>
+  </si>
+  <si>
+    <t>화영신선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천명신선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암영천선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+화영신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+천명신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+암영신선에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1690,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG89"/>
+  <dimension ref="A1:AG92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10711,6 +10747,309 @@
       </c>
       <c r="AG89" s="28">
         <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A90" s="25">
+        <v>88</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D90" s="25">
+        <v>28</v>
+      </c>
+      <c r="E90" s="25">
+        <v>4</v>
+      </c>
+      <c r="F90" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G90" s="25">
+        <v>200</v>
+      </c>
+      <c r="H90" s="25">
+        <v>177</v>
+      </c>
+      <c r="I90" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J90" s="26">
+        <v>0</v>
+      </c>
+      <c r="K90" s="26">
+        <v>0</v>
+      </c>
+      <c r="L90" s="26">
+        <v>0</v>
+      </c>
+      <c r="M90" s="26">
+        <v>0</v>
+      </c>
+      <c r="N90" s="26">
+        <v>0</v>
+      </c>
+      <c r="O90" s="26">
+        <v>0</v>
+      </c>
+      <c r="P90" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>0</v>
+      </c>
+      <c r="R90" s="26">
+        <v>0</v>
+      </c>
+      <c r="S90" s="26">
+        <v>0</v>
+      </c>
+      <c r="T90" s="25">
+        <v>2</v>
+      </c>
+      <c r="U90" s="25">
+        <v>10</v>
+      </c>
+      <c r="V90" s="25">
+        <v>1</v>
+      </c>
+      <c r="W90" s="25">
+        <v>7</v>
+      </c>
+      <c r="X90" s="25">
+        <v>108000</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z90" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB90" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AC90" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD90" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="AF90" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG90" s="28">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A91" s="25">
+        <v>89</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="25">
+        <v>28</v>
+      </c>
+      <c r="E91" s="25">
+        <v>4</v>
+      </c>
+      <c r="F91" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G91" s="25">
+        <v>200</v>
+      </c>
+      <c r="H91" s="25">
+        <v>178</v>
+      </c>
+      <c r="I91" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J91" s="26">
+        <v>0</v>
+      </c>
+      <c r="K91" s="26">
+        <v>0</v>
+      </c>
+      <c r="L91" s="26">
+        <v>0</v>
+      </c>
+      <c r="M91" s="26">
+        <v>0</v>
+      </c>
+      <c r="N91" s="26">
+        <v>0</v>
+      </c>
+      <c r="O91" s="26">
+        <v>0</v>
+      </c>
+      <c r="P91" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="26">
+        <v>0</v>
+      </c>
+      <c r="R91" s="26">
+        <v>0</v>
+      </c>
+      <c r="S91" s="26">
+        <v>0</v>
+      </c>
+      <c r="T91" s="25">
+        <v>2</v>
+      </c>
+      <c r="U91" s="25">
+        <v>10</v>
+      </c>
+      <c r="V91" s="25">
+        <v>1</v>
+      </c>
+      <c r="W91" s="25">
+        <v>7</v>
+      </c>
+      <c r="X91" s="25">
+        <v>110000</v>
+      </c>
+      <c r="Y91" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z91" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB91" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AC91" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD91" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="AF91" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="AG91" s="28">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="25">
+        <v>90</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D92" s="25">
+        <v>28</v>
+      </c>
+      <c r="E92" s="25">
+        <v>4</v>
+      </c>
+      <c r="F92" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G92" s="25">
+        <v>200</v>
+      </c>
+      <c r="H92" s="25">
+        <v>180</v>
+      </c>
+      <c r="I92" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J92" s="26">
+        <v>0</v>
+      </c>
+      <c r="K92" s="26">
+        <v>0</v>
+      </c>
+      <c r="L92" s="26">
+        <v>0</v>
+      </c>
+      <c r="M92" s="26">
+        <v>0</v>
+      </c>
+      <c r="N92" s="26">
+        <v>0</v>
+      </c>
+      <c r="O92" s="26">
+        <v>0</v>
+      </c>
+      <c r="P92" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="26">
+        <v>0</v>
+      </c>
+      <c r="R92" s="26">
+        <v>0</v>
+      </c>
+      <c r="S92" s="26">
+        <v>0</v>
+      </c>
+      <c r="T92" s="25">
+        <v>2</v>
+      </c>
+      <c r="U92" s="25">
+        <v>10</v>
+      </c>
+      <c r="V92" s="25">
+        <v>1</v>
+      </c>
+      <c r="W92" s="25">
+        <v>7</v>
+      </c>
+      <c r="X92" s="25">
+        <v>112000</v>
+      </c>
+      <c r="Y92" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z92" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AA92" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB92" s="14">
+        <v>90000</v>
+      </c>
+      <c r="AC92" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD92" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="AF92" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG92" s="28">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831F315-1003-498A-A9AF-F8853C9C44CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4047E8-9F64-46D8-8A43-F391196A19DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="311">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1182,6 +1182,53 @@
   <si>
     <t>신선계
 암영신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook91</t>
+  </si>
+  <si>
+    <t>magicBook92</t>
+  </si>
+  <si>
+    <t>magicBook93</t>
+  </si>
+  <si>
+    <t>혈향천선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍랑천선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설화천선 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+혈향신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+홍랑신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선계
+설화신선에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook94</t>
+  </si>
+  <si>
+    <t>7월 패스 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 월간훈련에서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,11 +1773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG92"/>
+  <dimension ref="A1:AG96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG94" sqref="AG94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11050,6 +11097,410 @@
       </c>
       <c r="AG92" s="28">
         <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="25">
+        <v>91</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="D93" s="25">
+        <v>28</v>
+      </c>
+      <c r="E93" s="25">
+        <v>4</v>
+      </c>
+      <c r="F93" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G93" s="25">
+        <v>200</v>
+      </c>
+      <c r="H93" s="25">
+        <v>184</v>
+      </c>
+      <c r="I93" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J93" s="26">
+        <v>0</v>
+      </c>
+      <c r="K93" s="26">
+        <v>0</v>
+      </c>
+      <c r="L93" s="26">
+        <v>0</v>
+      </c>
+      <c r="M93" s="26">
+        <v>0</v>
+      </c>
+      <c r="N93" s="26">
+        <v>0</v>
+      </c>
+      <c r="O93" s="26">
+        <v>0</v>
+      </c>
+      <c r="P93" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="26">
+        <v>0</v>
+      </c>
+      <c r="R93" s="26">
+        <v>0</v>
+      </c>
+      <c r="S93" s="26">
+        <v>0</v>
+      </c>
+      <c r="T93" s="25">
+        <v>2</v>
+      </c>
+      <c r="U93" s="25">
+        <v>10</v>
+      </c>
+      <c r="V93" s="25">
+        <v>1</v>
+      </c>
+      <c r="W93" s="25">
+        <v>7</v>
+      </c>
+      <c r="X93" s="25">
+        <v>114000</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z93" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AC93" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="AF93" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG93" s="28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="25">
+        <v>92</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D94" s="25">
+        <v>28</v>
+      </c>
+      <c r="E94" s="25">
+        <v>4</v>
+      </c>
+      <c r="F94" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G94" s="25">
+        <v>200</v>
+      </c>
+      <c r="H94" s="25">
+        <v>185</v>
+      </c>
+      <c r="I94" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J94" s="26">
+        <v>0</v>
+      </c>
+      <c r="K94" s="26">
+        <v>0</v>
+      </c>
+      <c r="L94" s="26">
+        <v>0</v>
+      </c>
+      <c r="M94" s="26">
+        <v>0</v>
+      </c>
+      <c r="N94" s="26">
+        <v>0</v>
+      </c>
+      <c r="O94" s="26">
+        <v>0</v>
+      </c>
+      <c r="P94" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="26">
+        <v>0</v>
+      </c>
+      <c r="R94" s="26">
+        <v>0</v>
+      </c>
+      <c r="S94" s="26">
+        <v>0</v>
+      </c>
+      <c r="T94" s="25">
+        <v>2</v>
+      </c>
+      <c r="U94" s="25">
+        <v>10</v>
+      </c>
+      <c r="V94" s="25">
+        <v>1</v>
+      </c>
+      <c r="W94" s="25">
+        <v>7</v>
+      </c>
+      <c r="X94" s="25">
+        <v>116000</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z94" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB94" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AC94" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="AF94" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG94" s="28">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A95" s="25">
+        <v>93</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D95" s="25">
+        <v>28</v>
+      </c>
+      <c r="E95" s="25">
+        <v>4</v>
+      </c>
+      <c r="F95" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G95" s="25">
+        <v>200</v>
+      </c>
+      <c r="H95" s="25">
+        <v>186</v>
+      </c>
+      <c r="I95" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J95" s="26">
+        <v>0</v>
+      </c>
+      <c r="K95" s="26">
+        <v>0</v>
+      </c>
+      <c r="L95" s="26">
+        <v>0</v>
+      </c>
+      <c r="M95" s="26">
+        <v>0</v>
+      </c>
+      <c r="N95" s="26">
+        <v>0</v>
+      </c>
+      <c r="O95" s="26">
+        <v>0</v>
+      </c>
+      <c r="P95" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="26">
+        <v>0</v>
+      </c>
+      <c r="R95" s="26">
+        <v>0</v>
+      </c>
+      <c r="S95" s="26">
+        <v>0</v>
+      </c>
+      <c r="T95" s="25">
+        <v>2</v>
+      </c>
+      <c r="U95" s="25">
+        <v>10</v>
+      </c>
+      <c r="V95" s="25">
+        <v>1</v>
+      </c>
+      <c r="W95" s="25">
+        <v>7</v>
+      </c>
+      <c r="X95" s="25">
+        <v>118000</v>
+      </c>
+      <c r="Y95" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z95" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB95" s="14">
+        <v>110000</v>
+      </c>
+      <c r="AC95" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE95" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="AF95" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG95" s="28">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="25">
+        <v>94</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D96" s="10">
+        <v>9</v>
+      </c>
+      <c r="E96" s="10">
+        <v>4</v>
+      </c>
+      <c r="F96" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="G96" s="10">
+        <v>200</v>
+      </c>
+      <c r="H96" s="10">
+        <v>75</v>
+      </c>
+      <c r="I96" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" s="11">
+        <v>0</v>
+      </c>
+      <c r="K96" s="11">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11">
+        <v>0</v>
+      </c>
+      <c r="M96" s="11">
+        <v>0</v>
+      </c>
+      <c r="N96" s="11">
+        <v>0</v>
+      </c>
+      <c r="O96" s="11">
+        <v>0</v>
+      </c>
+      <c r="P96" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="11">
+        <v>0</v>
+      </c>
+      <c r="R96" s="11">
+        <v>0</v>
+      </c>
+      <c r="S96" s="11">
+        <v>0</v>
+      </c>
+      <c r="T96" s="10">
+        <v>2</v>
+      </c>
+      <c r="U96" s="10">
+        <v>10</v>
+      </c>
+      <c r="V96" s="10">
+        <v>1</v>
+      </c>
+      <c r="W96" s="10">
+        <v>7</v>
+      </c>
+      <c r="X96" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD96" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="9">
+        <v>1000000</v>
+      </c>
+      <c r="AF96" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG96" s="28">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/MagicBook.xlsx
+++ b/Assets/06.Table/MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4047E8-9F64-46D8-8A43-F391196A19DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3522E1B-71CC-4FD5-B36F-A6E3CAB145D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MagicBook" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="317">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,30 @@
   </si>
   <si>
     <t>7월 월간훈련에서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magicBook95</t>
+  </si>
+  <si>
+    <t>magicBook96</t>
+  </si>
+  <si>
+    <t>음혼마군 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀왕 노리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+음혼마군에게서 획득!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상수배
+귀왕에게서 획득!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1773,11 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AG96"/>
+  <dimension ref="A1:AG98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG94" sqref="AG94"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11501,6 +11525,208 @@
       </c>
       <c r="AG96" s="28">
         <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="25">
+        <v>95</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="25">
+        <v>29</v>
+      </c>
+      <c r="E97" s="25">
+        <v>4</v>
+      </c>
+      <c r="F97" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G97" s="25">
+        <v>200</v>
+      </c>
+      <c r="H97" s="25">
+        <v>189</v>
+      </c>
+      <c r="I97" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" s="26">
+        <v>0</v>
+      </c>
+      <c r="K97" s="26">
+        <v>0</v>
+      </c>
+      <c r="L97" s="26">
+        <v>0</v>
+      </c>
+      <c r="M97" s="26">
+        <v>0</v>
+      </c>
+      <c r="N97" s="26">
+        <v>0</v>
+      </c>
+      <c r="O97" s="26">
+        <v>0</v>
+      </c>
+      <c r="P97" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="26">
+        <v>0</v>
+      </c>
+      <c r="R97" s="26">
+        <v>0</v>
+      </c>
+      <c r="S97" s="26">
+        <v>0</v>
+      </c>
+      <c r="T97" s="25">
+        <v>2</v>
+      </c>
+      <c r="U97" s="25">
+        <v>10</v>
+      </c>
+      <c r="V97" s="25">
+        <v>1</v>
+      </c>
+      <c r="W97" s="25">
+        <v>7</v>
+      </c>
+      <c r="X97" s="25">
+        <v>120000</v>
+      </c>
+      <c r="Y97" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z97" s="14">
+        <v>130000</v>
+      </c>
+      <c r="AA97" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB97" s="14">
+        <v>130000</v>
+      </c>
+      <c r="AC97" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="9">
+        <v>180000000</v>
+      </c>
+      <c r="AF97" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG97" s="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" ht="33" x14ac:dyDescent="0.3">
+      <c r="A98" s="25">
+        <v>96</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="25">
+        <v>29</v>
+      </c>
+      <c r="E98" s="25">
+        <v>4</v>
+      </c>
+      <c r="F98" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="G98" s="25">
+        <v>200</v>
+      </c>
+      <c r="H98" s="25">
+        <v>190</v>
+      </c>
+      <c r="I98" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" s="26">
+        <v>0</v>
+      </c>
+      <c r="K98" s="26">
+        <v>0</v>
+      </c>
+      <c r="L98" s="26">
+        <v>0</v>
+      </c>
+      <c r="M98" s="26">
+        <v>0</v>
+      </c>
+      <c r="N98" s="26">
+        <v>0</v>
+      </c>
+      <c r="O98" s="26">
+        <v>0</v>
+      </c>
+      <c r="P98" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="26">
+        <v>0</v>
+      </c>
+      <c r="R98" s="26">
+        <v>0</v>
+      </c>
+      <c r="S98" s="26">
+        <v>0</v>
+      </c>
+      <c r="T98" s="25">
+        <v>2</v>
+      </c>
+      <c r="U98" s="25">
+        <v>10</v>
+      </c>
+      <c r="V98" s="25">
+        <v>1</v>
+      </c>
+      <c r="W98" s="25">
+        <v>7</v>
+      </c>
+      <c r="X98" s="25">
+        <v>122000</v>
+      </c>
+      <c r="Y98" s="14">
+        <v>9008</v>
+      </c>
+      <c r="Z98" s="14">
+        <v>130000</v>
+      </c>
+      <c r="AA98" s="14">
+        <v>9008</v>
+      </c>
+      <c r="AB98" s="14">
+        <v>130000</v>
+      </c>
+      <c r="AC98" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="9">
+        <v>180000000</v>
+      </c>
+      <c r="AF98" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG98" s="28">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
